--- a/notebooks/COQ7/input/COQ7_individuals.xlsx
+++ b/notebooks/COQ7/input/COQ7_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/COQ7/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26D2CD0-6337-EF45-8651-050F2CAAB699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18909C85-966F-F94A-9F4D-ADC6A4F1BBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="9460" windowWidth="27640" windowHeight="16940" xr2:uid="{4A9290C9-7C20-1245-A71A-6CE3E2BFBCB3}"/>
+    <workbookView xWindow="6240" yWindow="4240" windowWidth="27640" windowHeight="16940" xr2:uid="{4A9290C9-7C20-1245-A71A-6CE3E2BFBCB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="82">
   <si>
     <t>PMID</t>
   </si>
@@ -83,9 +83,6 @@
     <t>str</t>
   </si>
   <si>
-    <t>optional str</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
@@ -273,13 +270,25 @@
   </si>
   <si>
     <t>HP:0001622</t>
+  </si>
+  <si>
+    <t>HGNC_id</t>
+  </si>
+  <si>
+    <t>gene_symbol</t>
+  </si>
+  <si>
+    <t>CURIE</t>
+  </si>
+  <si>
+    <t>optional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -298,6 +307,19 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -320,9 +342,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,15 +681,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A0CAC6-6748-D443-986B-2B95F0DB4BC6}">
-  <dimension ref="A1:AE8"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -684,85 +708,91 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -771,16 +801,16 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>81</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>14</v>
@@ -789,511 +819,517 @@
         <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V2" t="s">
-        <v>52</v>
-      </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
         <v>64</v>
       </c>
-      <c r="AC2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" t="s">
         <v>65</v>
-      </c>
-      <c r="I3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
       </c>
       <c r="M3" t="s">
         <v>26</v>
       </c>
       <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="O3" t="s">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="P3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" t="s">
-        <v>39</v>
-      </c>
-      <c r="V3" t="s">
-        <v>39</v>
-      </c>
-      <c r="W3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>66</v>
       </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" t="s">
         <v>30</v>
       </c>
-      <c r="M4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" t="s">
-        <v>44</v>
-      </c>
-      <c r="T4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U4" t="s">
-        <v>44</v>
-      </c>
-      <c r="V4" t="s">
-        <v>44</v>
-      </c>
-      <c r="W4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>18</v>
+      <c r="P7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" t="s">
         <v>32</v>
       </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U5" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W5" t="s">
-        <v>44</v>
-      </c>
-      <c r="X5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" t="s">
-        <v>72</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" t="s">
-        <v>44</v>
-      </c>
-      <c r="S6" t="s">
-        <v>44</v>
-      </c>
-      <c r="X6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>39</v>
-      </c>
-      <c r="R7" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" t="s">
-        <v>44</v>
-      </c>
-      <c r="X7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" t="s">
-        <v>26</v>
-      </c>
       <c r="N8" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="O8" t="s">
+        <v>25</v>
       </c>
       <c r="P8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="R8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s">
-        <v>44</v>
-      </c>
-      <c r="X8" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="T8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" t="s">
+        <v>43</v>
       </c>
       <c r="Z8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>18</v>
+        <v>43</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
